--- a/backlog/Backlog.xlsx
+++ b/backlog/Backlog.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29303"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29324"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="225" documentId="11_FE4855BF84DCCE436F107A399131F45B7AFB1D1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBDAFD13-A9AD-42B6-B7BA-5E9FBD3C6D0C}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/gabriel_jesus_sptech_school/Documents/Sustenta Tech/SPRINT 2 - GRUPO 6/BACKLOG/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="821" documentId="11_FE4855BF84DCCE436F107A399131F45B7AFB1D1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEB43FD8-70FE-46C1-AADB-0FEAE135F042}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gráfico1" sheetId="2" r:id="rId1"/>
+    <sheet name="Folha1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,12 +37,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="104">
+  <si>
+    <t>PROJETO SUSTENTA TECH - BACKLOG</t>
+  </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>Requesito</t>
+    <t>Requisito</t>
   </si>
   <si>
     <t>Descrição</t>
@@ -45,7 +54,28 @@
     <t>Classificação</t>
   </si>
   <si>
-    <t>Funcional/Não Funcional</t>
+    <t>Tamanho</t>
+  </si>
+  <si>
+    <t>Tam(#)</t>
+  </si>
+  <si>
+    <t>Prioridade</t>
+  </si>
+  <si>
+    <t>SPRINT</t>
+  </si>
+  <si>
+    <t>Pontos Fibonacci</t>
+  </si>
+  <si>
+    <t>Planejado</t>
+  </si>
+  <si>
+    <t>Entregue</t>
+  </si>
+  <si>
+    <t>Pendente</t>
   </si>
   <si>
     <t>1.Documentação</t>
@@ -57,7 +87,13 @@
     <t>Essencial</t>
   </si>
   <si>
-    <t>Não Funcional</t>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
   <si>
     <t>2.Diagrama</t>
@@ -66,68 +102,263 @@
     <t>Produzir um diagrama de visão de negócio , que apresente os problemas que o projeto irá resolver e como será essa resolução.</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>3.Ferramenta de Gestão</t>
+  </si>
+  <si>
+    <t>Subir no Trello todos os requesitos do projeto, e separar qual tarefa cada membro da equipe ira fazer.</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>3.1Cadastrar  (Trello)</t>
+  </si>
+  <si>
+    <t>Cada membro criar uma conta no Trello e se cadastrar no Trello do projeto.</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>3.2Repositório no GitHub</t>
+  </si>
+  <si>
+    <t>Criar um repositório no GitHub para que todos os membros da equipe possam subir a criação e as alterações feitas em cada requisito.</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>4.Protótipo Site Institucional</t>
+  </si>
+  <si>
+    <t>Desenvolver protótipo do site, destacando interface gráfica e funcionalidades principais.</t>
+  </si>
+  <si>
+    <t>5.Banco de Dados</t>
+  </si>
+  <si>
+    <t>Criar o banco de dados do projeto.</t>
+  </si>
+  <si>
+    <t>6.Arduino</t>
+  </si>
+  <si>
+    <t>Interligar o Arduino e o sensor e construir o código que vai ser utilizado para a aplicação do projeto.</t>
+  </si>
+  <si>
+    <t>7.Calculadora</t>
+  </si>
+  <si>
+    <t>Construir uma calculadora que apresente os principais benefícios financeiros para o cliente, ajudando na finalização do contrato.</t>
+  </si>
+  <si>
+    <t>8.Virtual Box</t>
+  </si>
+  <si>
+    <t>Instalar o VirtualBox na máquina de apresentação e configurar um sistema operacional para demonstração das funcionalidades.</t>
+  </si>
+  <si>
+    <t>9.Projetos atualizado no GitHub</t>
+  </si>
+  <si>
+    <t>No GitHub, atualizar o código dos sistemas utilizados no projeto.</t>
+  </si>
+  <si>
+    <t>9.1Atualizar membros da organização no GitHub</t>
+  </si>
+  <si>
+    <t>Inserir os novos membros do grupo na organização da Sustenta Tech</t>
+  </si>
+  <si>
+    <t>Desejavel</t>
+  </si>
+  <si>
+    <t>9.2 Atualizar Repositórios</t>
+  </si>
+  <si>
+    <t>Reorganizar os repositórios da organização Sustenta Tech</t>
+  </si>
+  <si>
     <t>Importante</t>
   </si>
   <si>
-    <t>Funcional</t>
-  </si>
-  <si>
-    <t>3.1Ferramenta de Gestão</t>
-  </si>
-  <si>
-    <t>Subir no Trello todos os requesitos do projeto, e separar qual tarefa cada membro da equipe ira fazer.</t>
-  </si>
-  <si>
-    <t>Desejável</t>
-  </si>
-  <si>
-    <t>3.2Cadastrar  (Trello)</t>
-  </si>
-  <si>
-    <t>Cada membro criar uma conta no Trello e se cadastrar no Trello do projeto.</t>
-  </si>
-  <si>
-    <t>3.3Repositório no GitHub</t>
-  </si>
-  <si>
-    <t>Criar um repositório no GitHub para que todos os membros da equipe possam subir a criação e as alterações feitas em cada requisito.</t>
-  </si>
-  <si>
-    <t>4.Protótipo Site Institucional</t>
-  </si>
-  <si>
-    <t>Desenvolver protótipo do site, destacando interface gráfica e funcionalidades principais.</t>
-  </si>
-  <si>
-    <t>5.Banco de Dados</t>
-  </si>
-  <si>
-    <t>Criar as tabelas no MySQL que vão ser utilizadas para armazenar os dados que vão ser essênciais para o projeto. Além de inserir os scripts de Inserção de Registro e de Consulta de Dados.</t>
-  </si>
-  <si>
-    <t>6.Arduino</t>
-  </si>
-  <si>
-    <t>Interligar o Arduino e o sensor e construir o código que vai ser utilizado para a aplicação do projeto.</t>
-  </si>
-  <si>
-    <t>7.Calculadora</t>
-  </si>
-  <si>
-    <t>Construir uma calculadora que apresente os principais benefícios financeiros para o cliente, ajudando na finalização do contrato.</t>
-  </si>
-  <si>
-    <t>8.Virtual Box</t>
-  </si>
-  <si>
-    <t>Instalar o VirtualBox na máquina de apresentação e configurar um sistema operacional para demonstração das funcionalidades.</t>
+    <t>9.3 Arduino: Revisar e atualizar código</t>
+  </si>
+  <si>
+    <t>Entender o código realizado pelo grupo anterior e realizar alterações se necessário.</t>
+  </si>
+  <si>
+    <t>9.4 Simulador financeiro: Revisar e atualizar código</t>
+  </si>
+  <si>
+    <t>Entender o código realizado pelo grupo anterios e realizar alterações de acordo com a atualização da documentação</t>
+  </si>
+  <si>
+    <t>10.Documentação do Projeto Atualizada</t>
+  </si>
+  <si>
+    <t>Revisar a documentação realizada pelo grupo anterior, reformulando alguns tópicos.</t>
+  </si>
+  <si>
+    <t>11.Planilha de Riscos do Projeto</t>
+  </si>
+  <si>
+    <t>Realizar em conjunto com o grupo a planilha de riscos da equipe.</t>
+  </si>
+  <si>
+    <t>12.Especificação da Dashboard</t>
+  </si>
+  <si>
+    <t>Protótipo da dashboard / como ela vai funcionar / oque ela precisa conter.</t>
+  </si>
+  <si>
+    <t>13.Site Estático Institucional – Local</t>
+  </si>
+  <si>
+    <t>Realizar o site institucional da Sustenta Tech.</t>
+  </si>
+  <si>
+    <t>13.1 Revisar e aprimorar o protótipo do site</t>
+  </si>
+  <si>
+    <t>Revisar o protótipo do site em equipe e realizar algumas alterações no layout do site.</t>
+  </si>
+  <si>
+    <t>14.Site Estático Dashboard – Local</t>
+  </si>
+  <si>
+    <t>Desenvolver o site estático da dashboard.</t>
+  </si>
+  <si>
+    <t>15. Site Estático Cadastro e Login – Local</t>
+  </si>
+  <si>
+    <t>Desenvolver o site de cadastro e login dos usuários.</t>
+  </si>
+  <si>
+    <t>16. Diagrama de Solução</t>
+  </si>
+  <si>
+    <t>Fazer o diagrama de solução do projeto.</t>
+  </si>
+  <si>
+    <t>17. Atividades organizadas na ferramenta de gestão</t>
+  </si>
+  <si>
+    <t>Organizar e passar todas as informações do backlog para o Trello.</t>
+  </si>
+  <si>
+    <t>18.BackLog da Sprint</t>
+  </si>
+  <si>
+    <t>Realizar o backlog da Sprint 2.</t>
+  </si>
+  <si>
+    <t>18.1 Gráfico de BurnDown</t>
+  </si>
+  <si>
+    <t>Criação do gráfico de BurnDown do backlog do projeto.</t>
+  </si>
+  <si>
+    <t>19.Modelagem Lógica do Projeto v1</t>
+  </si>
+  <si>
+    <t>Criar a modelagem de dados das tabelas presentes no banco de dados do projeto.</t>
+  </si>
+  <si>
+    <t>20. Script de criação do Banco de Dados</t>
+  </si>
+  <si>
+    <t>Criar o script do banco de dados do projeto.</t>
+  </si>
+  <si>
+    <t>21. Teste com Sensor do Projeto + Gráficos Web</t>
+  </si>
+  <si>
+    <t>Realizar os testes com o sensor utilizado no projeto e visualizar os dados captados pelo sensor no gráfico web.</t>
+  </si>
+  <si>
+    <t>22. Usar API Local/Sensor</t>
+  </si>
+  <si>
+    <t>Utilizar a API responsável por enviar os dados captados pelo sensor ao banco de dados.</t>
+  </si>
+  <si>
+    <t>23. Instalar MySQL no servidor de dados da solução</t>
+  </si>
+  <si>
+    <t>Instalar o MySQL na máquina virtual utilizada para realizar a aplicação do projeto.</t>
+  </si>
+  <si>
+    <t>24. Inserção de dados do Arduino no MySQL</t>
+  </si>
+  <si>
+    <t>Inserir os dados captados pelo sensor no banco de dados da máquina virtual.</t>
+  </si>
+  <si>
+    <t>25. Validar a solução técnica + Diagrama da Solução</t>
+  </si>
+  <si>
+    <t>Realizar a validaçaõ do diagrama de solução do projeto com os professores</t>
+  </si>
+  <si>
+    <t>26. Fluxograma do suporte</t>
+  </si>
+  <si>
+    <t>27. Ferramenta de Help Desk</t>
+  </si>
+  <si>
+    <t>28. Documentação de mudança</t>
+  </si>
+  <si>
+    <t>29. Modelagem Lógica v1</t>
+  </si>
+  <si>
+    <t>30. Script MySQL Server</t>
+  </si>
+  <si>
+    <t>30.1. Visualização</t>
+  </si>
+  <si>
+    <t>31. Site institucional dinâmico (Tela inicial)</t>
+  </si>
+  <si>
+    <t>Oferecer o site institucional de forma dinâmica.</t>
+  </si>
+  <si>
+    <t>31.1 Tela de cadastro e login dinâmica</t>
+  </si>
+  <si>
+    <t>Oferecer o site de cadastro e login de forma dinâmica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 3 </t>
+  </si>
+  <si>
+    <t>31.2 Tela de dashboard dinâmica</t>
+  </si>
+  <si>
+    <t>Oferecer o site da dashboard de forma dinâmica.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,23 +367,65 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -160,25 +433,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -188,6 +511,3586 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$C$2:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Descrição</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elaborar documentação do projeto descrevendo contexto, problemas a serem resolvidos, funcionalidades esperadas e benefícios para o negócio.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Produzir um diagrama de visão de negócio , que apresente os problemas que o projeto irá resolver e como será essa resolução.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Subir no Trello todos os requesitos do projeto, e separar qual tarefa cada membro da equipe ira fazer.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Cada membro criar uma conta no Trello e se cadastrar no Trello do projeto.</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Criar um repositório no GitHub para que todos os membros da equipe possam subir a criação e as alterações feitas em cada requisito.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Desenvolver protótipo do site, destacando interface gráfica e funcionalidades principais.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Criar o banco de dados do projeto.</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Interligar o Arduino e o sensor e construir o código que vai ser utilizado para a aplicação do projeto.</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Construir uma calculadora que apresente os principais benefícios financeiros para o cliente, ajudando na finalização do contrato.</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Instalar o VirtualBox na máquina de apresentação e configurar um sistema operacional para demonstração das funcionalidades.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Folha1!$A$13:$B$35</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="23"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>9.Projetos atualizado no GitHub</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.1Atualizar membros da organização no GitHub</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.2 Atualizar Repositórios</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.3 Arduino: Revisar e atualizar código</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.4 Simulador financeiro: Revisar e atualizar código</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10.Documentação do Projeto Atualizada</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11.Planilha de Riscos do Projeto</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>12.Especificação da Dashboard</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>13.Site Estático Institucional – Local</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>13.1 Revisar e aprimorar o protótipo do site</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>14.Site Estático Dashboard – Local</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>15. Site Estático Cadastro e Login – Local</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>16. Diagrama de Solução</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>17. Atividades organizadas na ferramenta de gestão</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>18.BackLog da Sprint</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>18.1 Gráfico de BurnDown</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>19.Modelagem Lógica do Projeto v1</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>20. Script de criação do Banco de Dados</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>21. Teste com Sensor do Projeto + Gráficos Web</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>22. Usar API Local/Sensor</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>23. Instalar MySQL no servidor de dados da solução</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>24. Inserção de dados do Arduino no MySQL</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>25. Validar a solução técnica + Diagrama da Solução</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>33</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>34</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$C$13:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-693C-49B8-B094-A8F9D3640CBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$D$2:$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Classificação</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Folha1!$A$13:$B$35</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="23"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>9.Projetos atualizado no GitHub</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.1Atualizar membros da organização no GitHub</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.2 Atualizar Repositórios</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.3 Arduino: Revisar e atualizar código</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.4 Simulador financeiro: Revisar e atualizar código</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10.Documentação do Projeto Atualizada</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11.Planilha de Riscos do Projeto</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>12.Especificação da Dashboard</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>13.Site Estático Institucional – Local</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>13.1 Revisar e aprimorar o protótipo do site</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>14.Site Estático Dashboard – Local</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>15. Site Estático Cadastro e Login – Local</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>16. Diagrama de Solução</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>17. Atividades organizadas na ferramenta de gestão</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>18.BackLog da Sprint</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>18.1 Gráfico de BurnDown</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>19.Modelagem Lógica do Projeto v1</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>20. Script de criação do Banco de Dados</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>21. Teste com Sensor do Projeto + Gráficos Web</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>22. Usar API Local/Sensor</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>23. Instalar MySQL no servidor de dados da solução</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>24. Inserção de dados do Arduino no MySQL</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>25. Validar a solução técnica + Diagrama da Solução</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>33</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>34</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$D$13:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-693C-49B8-B094-A8F9D3640CBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$E$2:$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Tamanho</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Folha1!$A$13:$B$35</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="23"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>9.Projetos atualizado no GitHub</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.1Atualizar membros da organização no GitHub</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.2 Atualizar Repositórios</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.3 Arduino: Revisar e atualizar código</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.4 Simulador financeiro: Revisar e atualizar código</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10.Documentação do Projeto Atualizada</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11.Planilha de Riscos do Projeto</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>12.Especificação da Dashboard</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>13.Site Estático Institucional – Local</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>13.1 Revisar e aprimorar o protótipo do site</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>14.Site Estático Dashboard – Local</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>15. Site Estático Cadastro e Login – Local</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>16. Diagrama de Solução</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>17. Atividades organizadas na ferramenta de gestão</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>18.BackLog da Sprint</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>18.1 Gráfico de BurnDown</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>19.Modelagem Lógica do Projeto v1</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>20. Script de criação do Banco de Dados</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>21. Teste com Sensor do Projeto + Gráficos Web</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>22. Usar API Local/Sensor</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>23. Instalar MySQL no servidor de dados da solução</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>24. Inserção de dados do Arduino no MySQL</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>25. Validar a solução técnica + Diagrama da Solução</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>33</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>34</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$E$13:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-693C-49B8-B094-A8F9D3640CBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$F$2:$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Tam(#)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Folha1!$A$13:$B$35</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="23"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>9.Projetos atualizado no GitHub</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.1Atualizar membros da organização no GitHub</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.2 Atualizar Repositórios</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.3 Arduino: Revisar e atualizar código</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.4 Simulador financeiro: Revisar e atualizar código</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10.Documentação do Projeto Atualizada</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11.Planilha de Riscos do Projeto</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>12.Especificação da Dashboard</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>13.Site Estático Institucional – Local</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>13.1 Revisar e aprimorar o protótipo do site</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>14.Site Estático Dashboard – Local</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>15. Site Estático Cadastro e Login – Local</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>16. Diagrama de Solução</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>17. Atividades organizadas na ferramenta de gestão</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>18.BackLog da Sprint</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>18.1 Gráfico de BurnDown</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>19.Modelagem Lógica do Projeto v1</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>20. Script de criação do Banco de Dados</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>21. Teste com Sensor do Projeto + Gráficos Web</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>22. Usar API Local/Sensor</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>23. Instalar MySQL no servidor de dados da solução</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>24. Inserção de dados do Arduino no MySQL</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>25. Validar a solução técnica + Diagrama da Solução</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>33</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>34</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$F$13:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-693C-49B8-B094-A8F9D3640CBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$G$2:$G$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Prioridade</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Folha1!$A$13:$B$35</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="23"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>9.Projetos atualizado no GitHub</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.1Atualizar membros da organização no GitHub</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.2 Atualizar Repositórios</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.3 Arduino: Revisar e atualizar código</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.4 Simulador financeiro: Revisar e atualizar código</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10.Documentação do Projeto Atualizada</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11.Planilha de Riscos do Projeto</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>12.Especificação da Dashboard</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>13.Site Estático Institucional – Local</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>13.1 Revisar e aprimorar o protótipo do site</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>14.Site Estático Dashboard – Local</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>15. Site Estático Cadastro e Login – Local</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>16. Diagrama de Solução</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>17. Atividades organizadas na ferramenta de gestão</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>18.BackLog da Sprint</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>18.1 Gráfico de BurnDown</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>19.Modelagem Lógica do Projeto v1</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>20. Script de criação do Banco de Dados</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>21. Teste com Sensor do Projeto + Gráficos Web</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>22. Usar API Local/Sensor</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>23. Instalar MySQL no servidor de dados da solução</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>24. Inserção de dados do Arduino no MySQL</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>25. Validar a solução técnica + Diagrama da Solução</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>33</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>34</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$G$13:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-693C-49B8-B094-A8F9D3640CBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$H$2:$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>SPRINT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Folha1!$A$13:$B$35</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="23"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>9.Projetos atualizado no GitHub</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.1Atualizar membros da organização no GitHub</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.2 Atualizar Repositórios</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.3 Arduino: Revisar e atualizar código</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.4 Simulador financeiro: Revisar e atualizar código</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10.Documentação do Projeto Atualizada</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11.Planilha de Riscos do Projeto</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>12.Especificação da Dashboard</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>13.Site Estático Institucional – Local</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>13.1 Revisar e aprimorar o protótipo do site</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>14.Site Estático Dashboard – Local</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>15. Site Estático Cadastro e Login – Local</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>16. Diagrama de Solução</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>17. Atividades organizadas na ferramenta de gestão</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>18.BackLog da Sprint</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>18.1 Gráfico de BurnDown</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>19.Modelagem Lógica do Projeto v1</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>20. Script de criação do Banco de Dados</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>21. Teste com Sensor do Projeto + Gráficos Web</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>22. Usar API Local/Sensor</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>23. Instalar MySQL no servidor de dados da solução</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>24. Inserção de dados do Arduino no MySQL</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>25. Validar a solução técnica + Diagrama da Solução</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>33</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>34</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$H$13:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-693C-49B8-B094-A8F9D3640CBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="658085856"/>
+        <c:axId val="658104096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="658085856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658104096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="658104096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658085856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Gráfico</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> de BurnDown</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planejado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$L$3:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6CD8-4E95-ADDB-546CD081EC43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Entregue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$M$3:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6CD8-4E95-ADDB-546CD081EC43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pendente</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$N$3:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6CD8-4E95-ADDB-546CD081EC43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="985562448"/>
+        <c:axId val="985569648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="985562448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="985569648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="985569648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="985562448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{79659D53-39FE-4D88-9030-393778D8A925}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="77" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9636331" cy="6011883"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2875460-E71A-D73E-CFDD-E4082962F420}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>101129</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>251178</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>322204</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>360304</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD632A8E-2770-B664-37E2-66088CDB2E38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -507,210 +4410,1181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="81" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="81.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="13" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="39.75" customHeight="1">
-      <c r="A2" s="1">
+    <row r="3" spans="1:14" ht="30" customHeight="1">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="7">
+        <f>SUM(F:F)</f>
+        <v>232</v>
+      </c>
+      <c r="L3" s="3">
+        <v>232</v>
+      </c>
+      <c r="M3" s="3">
+        <f>SUM(M4:M6)</f>
+        <v>74</v>
+      </c>
+      <c r="N3" s="3">
+        <f>L3-M3</f>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="30" customHeight="1">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="7">
+        <f>SUMIF(H:H,"Sprint 1",F:F)</f>
+        <v>74</v>
+      </c>
+      <c r="L4" s="3">
+        <v>74</v>
+      </c>
+      <c r="M4" s="3">
+        <v>74</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" ref="N4:N6" si="0">L4-M4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="7">
+        <f>SUMIF(H:H,"Sprint 2",F:F)</f>
+        <v>158</v>
+      </c>
+      <c r="L5" s="3">
+        <v>158</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="7">
+        <f>SUMIF(H:H,"Sprint 3",F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="3">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="12">
+        <f>AVERAGE(K4:K6)</f>
+        <v>77.333333333333329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30" customHeight="1">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="3">
         <v>8</v>
       </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="35.25" customHeight="1">
-      <c r="A3" s="1">
+    <row r="10" spans="1:14" ht="30" customHeight="1">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30" customHeight="1">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="3">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="H11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30" customHeight="1">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="30" customHeight="1">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="30" customHeight="1">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="36.75" customHeight="1">
-      <c r="A4" s="1">
+    <row r="15" spans="1:14" ht="30" customHeight="1">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="30" customHeight="1">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="3">
+        <v>8</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="3">
+        <v>13</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="3">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="H19" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="3">
         <v>8</v>
       </c>
+      <c r="G20" s="3">
+        <v>2</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="24" customHeight="1">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
+    <row r="21" spans="1:8" ht="30" customHeight="1">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="3">
         <v>8</v>
       </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="39" customHeight="1">
-      <c r="A6" s="1">
+    <row r="22" spans="1:8" ht="30" customHeight="1">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="3">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" customHeight="1">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="3">
+        <v>8</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" customHeight="1">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="3">
+        <v>8</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" customHeight="1">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="3">
+        <v>8</v>
+      </c>
+      <c r="G25" s="3">
+        <v>2</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30" customHeight="1">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" customHeight="1">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" customHeight="1">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="3">
+        <v>5</v>
+      </c>
+      <c r="G28" s="3">
+        <v>2</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30" customHeight="1">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="3">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>2</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30" customHeight="1">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="3">
         <v>8</v>
       </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" ht="30.75" customHeight="1">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
+    <row r="31" spans="1:8" ht="30" customHeight="1">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
+      <c r="F31" s="3">
+        <v>8</v>
+      </c>
+      <c r="G31" s="3">
+        <v>2</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="s">
+    <row r="32" spans="1:8" ht="30" customHeight="1">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="3">
         <v>8</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G32" s="3">
+        <v>2</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" ht="36.75" customHeight="1">
-      <c r="A9" s="1">
+    <row r="33" spans="1:8" ht="30" customHeight="1">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30" customHeight="1">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="G34" s="3">
+        <v>3</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="10" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
+    <row r="35" spans="1:8" ht="30" customHeight="1">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="3">
+        <v>8</v>
+      </c>
+      <c r="G35" s="3">
+        <v>3</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="36.75" customHeight="1">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="2" t="s">
+    <row r="36" spans="1:8" ht="30" customHeight="1">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30" customHeight="1">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="30" customHeight="1">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30" customHeight="1">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="30" customHeight="1">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30" customHeight="1">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30" customHeight="1">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30" customHeight="1">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="30" customHeight="1">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="30" customHeight="1">
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" ht="30" customHeight="1">
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="5:7" ht="30" customHeight="1">
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="5:7" ht="30" customHeight="1">
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="5:7" ht="30" customHeight="1">
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="5:7" ht="30" customHeight="1">
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>